--- a/input_spreadsheets/Bangladesh/2016Oct/subregionSpreadsheets/Chittagong.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Oct/subregionSpreadsheets/Chittagong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="-21000" windowWidth="26380" windowHeight="20680" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-1920" yWindow="-21140" windowWidth="28820" windowHeight="20680" tabRatio="500" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
     <author>Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="80">
   <si>
     <t>indicators</t>
   </si>
@@ -582,9 +582,6 @@
     <t>Vitamin A supplementation</t>
   </si>
   <si>
-    <t>Multiple micronutrient supplementation</t>
-  </si>
-  <si>
     <t>pregnant women</t>
   </si>
   <si>
@@ -625,6 +622,9 @@
   </si>
   <si>
     <t>Food security &amp; education</t>
+  </si>
+  <si>
+    <t>Antenatal micronutrient supplementation</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -839,7 +839,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1515,25 +1514,25 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="24">
+        <v>70</v>
+      </c>
+      <c r="B5" s="23">
         <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="25">
+        <v>71</v>
+      </c>
+      <c r="B6" s="24">
         <v>0.32100000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="26">
+        <v>72</v>
+      </c>
+      <c r="B7" s="25">
         <v>0.20599999999999999</v>
       </c>
     </row>
@@ -2750,7 +2749,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2812,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -2920,7 +2919,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2951,7 +2950,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7">
         <v>5.16</v>
@@ -2959,23 +2958,35 @@
       <c r="C2" s="7">
         <v>5.16</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
         <v>1.82</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E3" s="11">
         <v>1.82</v>
       </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
@@ -3196,10 +3207,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3226,16 +3237,16 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0.65</v>
       </c>
       <c r="C2" s="2">
         <v>0.85</v>
       </c>
       <c r="D2" s="18">
-        <v>7.08</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="13"/>
@@ -3243,16 +3254,16 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B3" s="18">
-        <v>0.65</v>
+        <v>0.217</v>
       </c>
       <c r="C3" s="2">
         <v>0.85</v>
       </c>
       <c r="D3" s="18">
-        <v>0.35</v>
+        <v>3.56</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="13"/>
@@ -3263,13 +3274,13 @@
         <v>76</v>
       </c>
       <c r="B4" s="18">
-        <v>0.217</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>0.85</v>
       </c>
       <c r="D4" s="18">
-        <v>3.56</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="13"/>
@@ -3277,33 +3288,33 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="18">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="C5" s="2">
         <v>0.85</v>
       </c>
       <c r="D5" s="18">
-        <v>48</v>
+        <v>3.56</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
+      <c r="A6" t="s">
+        <v>77</v>
       </c>
       <c r="B6" s="18">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>0.85</v>
       </c>
       <c r="D6" s="18">
-        <v>3.56</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="13"/>
@@ -3311,7 +3322,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="18">
         <v>0</v>
@@ -3320,27 +3331,17 @@
         <v>0.85</v>
       </c>
       <c r="D7" s="18">
-        <v>25</v>
+        <v>1.8</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1.8</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3387,10 +3388,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
@@ -3435,10 +3433,6 @@
     <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3447,10 +3441,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3483,14 +3477,14 @@
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -3499,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -3513,7 +3507,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -3528,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
@@ -3542,13 +3536,15 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <f>demographics!$B$6</f>
+        <v>0.32100000000000001</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <f>demographics!$B$6</f>
+        <v>0.32100000000000001</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -3559,55 +3555,54 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <f>demographics!$B$6</f>
         <v>0.32100000000000001</v>
       </c>
-      <c r="E5" s="5">
-        <f>demographics!$B$6</f>
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -3625,32 +3620,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f>demographics!$B$6</f>
-        <v>0.32100000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
@@ -3696,10 +3674,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
@@ -3744,10 +3719,6 @@
     <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3761,7 +3732,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3774,7 +3745,7 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>46</v>
@@ -3791,10 +3762,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="14">
         <v>0.21</v>
@@ -3811,14 +3782,14 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="14">
-        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <f>demographics!$B$5 * 'Interventions target population'!$G$6</f>
         <v>0.18232799999999999</v>
       </c>
       <c r="D3" s="14">
-        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <f>demographics!$B$5 * 'Interventions target population'!$G$6</f>
         <v>0.18232799999999999</v>
       </c>
       <c r="E3" s="14">
@@ -3830,10 +3801,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="14">
         <v>0.1</v>
@@ -3850,7 +3821,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -3872,10 +3843,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3885,7 +3856,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -3908,7 +3879,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -3920,17 +3891,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="23">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G2" s="23">
-        <v>0.29699999999999999</v>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F2" s="22">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -3943,55 +3913,23 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="23">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0.29699999999999999</v>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0.33500000000000002</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -3999,20 +3937,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4021,10 +3948,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4034,7 +3961,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4057,7 +3984,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4069,17 +3996,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G2" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4093,54 +4019,22 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.3</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -4148,20 +4042,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4170,10 +4053,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4183,7 +4066,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4206,7 +4089,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4218,17 +4101,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="F2" s="2">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="G2" s="2">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4242,54 +4124,22 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.62</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -4297,20 +4147,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4772,19 +4611,19 @@
       <c r="B2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>47.547076868798719</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>47.347762074557259</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>36.593696240588422</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>20.917148622567581</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>18.90013786253428</v>
       </c>
     </row>
@@ -4792,19 +4631,19 @@
       <c r="B3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>16.928961733699442</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>16.857996434739327</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>23.422172037646668</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>25.294812753753344</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>24.77250098597673</v>
       </c>
     </row>
@@ -4812,19 +4651,19 @@
       <c r="B4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>15.86454936798496</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>15.798046028531754</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>22.767772217589879</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>38.267880445339074</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>43.535523907450525</v>
       </c>
     </row>
@@ -4832,19 +4671,19 @@
       <c r="B5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>4.6219017354838412</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>4.6025269714798576</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>5.934837410592448</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>16.234981426820188</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>16.1138248490081</v>
       </c>
     </row>
@@ -4852,82 +4691,82 @@
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>53.6545632323175</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>53.429646183047062</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>55.122839195890108</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>51.658353416617395</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>46.106727093155776</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>22.053376937030791</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>21.960930364580868</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>21.772424524541545</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>28.284618194352646</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>36.204311288771379</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>20.800075066777406</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>20.712882268499154</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>17.813078750909277</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>15.194143191214964</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>14.503500318887012</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>6.0201976740751171</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>5.9949613285472481</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>6.4843459267960011</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>5.0177430122747522</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>2.5700634940919462</v>
       </c>
     </row>
@@ -5061,7 +4900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -5091,19 +4930,19 @@
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>2.88</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>2.88</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <v>3.56</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="26">
         <v>2.2799999999999998</v>
       </c>
     </row>
